--- a/biology/Botanique/Square_des_Batignolles/Square_des_Batignolles.xlsx
+++ b/biology/Botanique/Square_des_Batignolles/Square_des_Batignolles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square des Batignolles est un espace vert situé dans le 17e arrondissement à Paris dans le quartier des Batignolles non loin du nouveau parc Martin-Luther-King.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square  est longé, en tranchée, par les voies ferrées du réseau Saint-Lazare au niveau de la station Pont-Cardinet et donc accessible par les trains qui s'y arrêtent.
 Il est également desservi par deux lignes d'autobus et se trouve face à la station Pont-Cardinet de la ligne de métro 14. Cette ligne passe d'ailleurs sous le square.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, cet endroit est un terrain vague, servant d'entrepôt de matériaux de démolitions. En 1835, il est transformé en place publique et reçoit le nom de « place de la Promenade ». La fête patronale du village a lieu le premier dimanche après le 15 août et pendant quinze jours, forains, clowns, acrobates, théâtres ambulants et attractions variées s'installent sur la place.
 En 1860, le hameau des Batignolles est rattaché à la ville de Paris, des commerçants y font construire leur résidence secondaire vers 1862. Cette même année, la place est clôturée par une grille avec portails en fer forgé.
@@ -581,24 +597,26 @@
           <t>Flore et faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été conçu comme un jardin à l'anglaise, légèrement vallonné, avec une grotte, une rivière, une cascade et un lac miniature. Une végétation très exotique y fut plantée à la fois pour émerveiller les sens mais aussi pour montrer la puissance du Second Empire, capable de faire vivre des espèces venant de tous les horizons climatiques.
 Actuellement, la mairie de Paris essaie de conserver le jardin dans le pur style haussmannien. Ce style est très visible par les petits ponts en béton avec dessins végétaux, les faux rochers stratifiés comme au parc des Buttes-Chaumont, construit à la même époque par le même Adolphe Alphand.
 Parmi les espèces végétales présentes se trouvent :
-quatre platanes hybrides (Platanus ×hispanica) plantés en 1840 et 1880, dont le plus haut fait 30 mètres et 5,90 m de circonférence et à ce titre est classé arbre remarquable[1]. Ils sont parmi les plus grands de Paris ;
-un noyer du Caucase (Ptérocaryer du Caucase), planté en 1899, hauteur 30 m, circonférence 395 cm (classé arbre remarquable[2]) ;
+quatre platanes hybrides (Platanus ×hispanica) plantés en 1840 et 1880, dont le plus haut fait 30 mètres et 5,90 m de circonférence et à ce titre est classé arbre remarquable. Ils sont parmi les plus grands de Paris ;
+un noyer du Caucase (Ptérocaryer du Caucase), planté en 1899, hauteur 30 m, circonférence 395 cm (classé arbre remarquable) ;
 un hêtre pourpre (Fagus sylvatica f. purpurea) ;
 de féviers d'Amérique (Gleditsia triacanthos) ;
 des saules tortueux (Salix matsudana 'Tortuosa') ;
 des noisetiers de Byzance (Corylus colurna) ;
 des frênes à feuilles d'Aucuba (Fraxinus aucubaefolia) ;
 des plaqueminiers du Japon (Diospyros kaki) ;
-un plaqueminier lotier (Diospyros lotus), hauteur 12m, circonférence 155 cm (classé arbre remarquable)[2] ;
+un plaqueminier lotier (Diospyros lotus), hauteur 12m, circonférence 155 cm (classé arbre remarquable) ;
 des citronniers trifoliers (Citrus limon) ;
 un séquoia géant (Sequoiadendron giganteum).
 Le square accueille également de très nombreuses espèces de palmipèdes (canards, cygnes, poules d'eau, bernaches) remarquables. La tranquillité du lieu et l'interdiction d'accès des pelouses au public en a fait des résidents permanents. Au printemps, on peut assez aisément observer des petits.
-Le square abrite également un pigeonnier depuis 2010. Celui-ci a pour objectif de réguler les naissances et la prolifération de l'espèce. En 2012, 222 œufs ont été stérilisés[3]. Des problèmes de nourrissage par la population locale nuisent à l'efficacité de l'équipement, mais des actions pédagogiques sont régulièrement entreprises.
+Le square abrite également un pigeonnier depuis 2010. Celui-ci a pour objectif de réguler les naissances et la prolifération de l'espèce. En 2012, 222 œufs ont été stérilisés. Des problèmes de nourrissage par la population locale nuisent à l'efficacité de l'équipement, mais des actions pédagogiques sont régulièrement entreprises.
 </t>
         </is>
       </c>
@@ -629,48 +647,160 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peinture
-Le Square des Batignolles est un tableau du peintre Albert André (1869-1954) (huile sur toile 50 cm × 65 cm). Cette toile du peintre peut être qualifiée d'impressionniste ou de post-impressionniste.
-Littérature
-Le square des Batignolles a été chanté par Barbara dans sa chanson Perlimpinpin, la chanteuse a habité à quelques mètres du square, rue Brochant. Il existe d'ailleurs une « allée Barbara », en l'honneur de la chanteuse, qui traverse le parc.
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Square des Batignolles est un tableau du peintre Albert André (1869-1954) (huile sur toile 50 cm × 65 cm). Cette toile du peintre peut être qualifiée d'impressionniste ou de post-impressionniste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Square_des_Batignolles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_des_Batignolles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square des Batignolles a été chanté par Barbara dans sa chanson Perlimpinpin, la chanteuse a habité à quelques mètres du square, rue Brochant. Il existe d'ailleurs une « allée Barbara », en l'honneur de la chanteuse, qui traverse le parc.
 La chanson Les Batignolles, interprétée en 1975 par Patrick Topaloff (paroles de Didier Barbelivien), fait référence au square et à ses aménagements.
 Yves Duteil a également intitulé une de ses chansons Les Batignolles (1976). Il fait ici référence aux trains qui circulaient entre la gare Saint-Lazare et la gare de Pont-Cardinet toute proche.
 Nicolas Grenier, poète français, a consacré pour la revue Les Jardins d'essai un sonnet au jardin des Batignolles, dédié à Adolphe Alphand.
-Sculptures
-La pièce d'eau comporte une sculpture en pierre noire de Volvic : Les Vautours, réalisée en 1930 par le sculpteur Louis de Monard (1873-1939)[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Square_des_Batignolles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_des_Batignolles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sculptures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pièce d'eau comporte une sculpture en pierre noire de Volvic : Les Vautours, réalisée en 1930 par le sculpteur Louis de Monard (1873-1939).
 Le jardin comporte un buste du poète parnassien, sacré « prince des Poètes », Léon Dierx par Bony de Lavergne en 1898, inaugurée seulement en 1930. On y voit aussi des socles vides, seuls vestiges de statues qui furent fondues pendant l'Occupation (dont la Nymphe au dauphin d'Antonin Larroux), comme bien d’autres ailleurs dans Paris.
-À partir de janvier 2012, les grilles et portails furent déposés, pour rénovation à l'identique avec réhausse des fûts cannelés et avec ajouts de pièces d'ornementations identiques à l'original. Les travaux devant être terminés pour la fin de l'année 2012[5].[Passage à actualiser]
-Art contemporain
-L'association le K.A.B propose depuis 2014, en partenariat avec la mairie du 17e, des installations d’art contemporain à l’intérieur du kiosque, autour de l'oranger[6].
+À partir de janvier 2012, les grilles et portails furent déposés, pour rénovation à l'identique avec réhausse des fûts cannelés et avec ajouts de pièces d'ornementations identiques à l'original. Les travaux devant être terminés pour la fin de l'année 2012.[Passage à actualiser]
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Square_des_Batignolles</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Square_des_Batignolles</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Art contemporain</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association le K.A.B propose depuis 2014, en partenariat avec la mairie du 17e, des installations d’art contemporain à l’intérieur du kiosque, autour de l'oranger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Square_des_Batignolles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_des_Batignolles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Horaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de 8 heures en semaine et à 9 heures le dimanche et jours fériés, fermeture à 19 heures à partir du 1er mars (21 h 30 du 1er mai au 31 août).
 </t>
